--- a/Performance_5050.xlsx
+++ b/Performance_5050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874E2058-B825-43AE-9F93-241964E74D94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741D4599-FF71-44DB-8287-19C22494EA55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F16B686-0AA6-4860-931A-4B6DD9D095EA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F16B686-0AA6-4860-931A-4B6DD9D095EA}"/>
   </bookViews>
   <sheets>
     <sheet name="avg acc" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +149,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -175,17 +183,158 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -11983,7 +12132,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -12051,58 +12200,58 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0.97214285714285698</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.94526315789473603</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0.95389908256880696</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.75290000000000001</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0.751999999999999</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>0.77777777777777701</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>0.86960227272727197</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>0.95960575719649499</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.82972972972972903</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>0.91699999999999904</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>0.87027027027027004</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="3">
         <v>0.82884615384615301</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="3">
         <v>0.85671641791044695</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
         <v>0.78434237995824596</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="3">
         <v>0.94766666666666599</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="3">
         <v>0.82765999999999995</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="3">
         <v>0.90617977528089799</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <v>0.94411764705882295</v>
       </c>
     </row>
@@ -12110,58 +12259,58 @@
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.97328571428571398</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.94263157894736804</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.963532110091743</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.81189999999999996</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>0.75799999999999901</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.83518518518518503</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>0.91221590909090899</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>0.94396120150187701</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0.84797297297297203</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>0.92749999999999999</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>0.91756756756756697</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <v>0.85865384615384599</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>0.85559701492537299</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>0.77442588726513495</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="3">
         <v>0.95533333333333303</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3">
         <v>0.81738</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>0.95280898876404496</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3">
         <v>0.93921568627450902</v>
       </c>
     </row>
@@ -12169,58 +12318,58 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0.97699999999999898</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.94070175438596404</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.96857798165137599</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0.89170000000000005</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>0.75419999999999998</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>0.83148148148148104</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0.87812499999999905</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>0.96902377972465503</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>0.84594594594594597</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>0.98009999999999997</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>0.86486486486486402</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <v>0.84567307692307603</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>0.85522388059701504</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <v>0.78496868475991599</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3">
         <v>0.957666666666666</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="3">
         <v>0.83631999999999995</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="3">
         <v>0.94719101123595495</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="3">
         <v>0.95196078431372499</v>
       </c>
     </row>
@@ -12228,58 +12377,58 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.97399999999999898</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.94859649122806999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.971330275229357</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.871</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>0.75799999999999901</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>0.85666666666666602</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0.91249999999999898</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>0.97334167709636998</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>0.858108108108108</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>0.99839999999999995</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>0.929729729729729</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <v>0.875</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <v>0.86865671641790998</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <v>0.78517745302713904</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <v>0.960666666666666</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="3">
         <v>0.83864000000000005</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="3">
         <v>0.96123595505617998</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <v>0.95588235294117596</v>
       </c>
     </row>
@@ -12287,65 +12436,71 @@
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0.97428571428571398</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.95157894736842097</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.97018348623853101</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.89369999999999905</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0.75949999999999895</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>0.844444444444444</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0.88181818181818195</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>0.96066958698372895</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>0.85270270270270199</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>0.96419999999999895</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>0.88243243243243197</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <v>0.81923076923076898</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>0.86791044776119397</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <v>0.79206680584551103</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="3">
         <v>0.96033333333333304</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="3">
         <v>0.82662000000000002</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="3">
         <v>0.96011235955056096</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
         <v>0.96764705882352897</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="12" priority="1">
+      <formula>B2=MAX(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12354,7 +12509,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -12422,58 +12577,58 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0.69444444444444398</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>0.50624999999999998</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <v>0.68076923076923002</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <v>0.51153846153846105</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="3">
         <v>0.59230769230769198</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="3">
         <v>0.58529411764705797</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="3">
         <v>0.77777777777777701</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="3">
         <v>0.57222222222222197</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <v>0.71153846153846101</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="3">
         <v>0.589230769230769</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="3">
         <v>0.63416666666666599</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="3">
         <v>0.64545454545454495</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="3">
         <v>0.56562500000000004</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="3">
         <v>0.807499999999999</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="3">
         <v>0.56538461538461504</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <v>0.609375</v>
       </c>
     </row>
@@ -12481,58 +12636,58 @@
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>0.50555555555555498</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>0.116666666666666</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>0.21562500000000001</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>0.42307692307692302</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <v>7.69230769230769E-2</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="3">
         <v>0.30384615384615299</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="3">
         <v>0.13823529411764701</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="3">
         <v>0.3</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="3">
         <v>0.327777777777777</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <v>0.46923076923076901</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="3">
         <v>0.163846153846153</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="3">
         <v>0.18833333333333299</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="3">
         <v>0.29772727272727201</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="3">
         <v>0.56666666666666599</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="3">
         <v>0.203125</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="3">
         <v>0.41374999999999901</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="3">
         <v>0.28461538461538399</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3">
         <v>0.328125</v>
       </c>
     </row>
@@ -12540,58 +12695,58 @@
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>0.62777777777777699</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>0.33499999999999902</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.41562500000000002</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0.57307692307692304</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <v>0.46538461538461501</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>0.46923076923076901</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0.52058823529411702</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="3">
         <v>0.63749999999999996</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="3">
         <v>0.54722222222222205</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <v>0.51153846153846105</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="3">
         <v>0.49569230769230699</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="3">
         <v>0.56818181818181801</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="3">
         <v>0.83333333333333304</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3">
         <v>0.54062500000000002</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="3">
         <v>0.71875</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="3">
         <v>0.492307692307692</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="3">
         <v>0.54062500000000002</v>
       </c>
     </row>
@@ -12599,58 +12754,58 @@
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>0.56666666666666599</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>0.11333333333333299</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>0.28437499999999999</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>0.33846153846153798</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <v>7.69230769230769E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <v>0.31923076923076898</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="3">
         <v>0.16617647058823501</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="3">
         <v>0.45694444444444399</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="3">
         <v>0.34722222222222199</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <v>0.46153846153846101</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="3">
         <v>0.23107692307692301</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="3">
         <v>0.30666666666666598</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="3">
         <v>0.37727272727272698</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="3">
         <v>0.594444444444444</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <v>0.24374999999999999</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="3">
         <v>0.526249999999999</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="3">
         <v>0.34615384615384598</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <v>0.375</v>
       </c>
     </row>
@@ -12658,63 +12813,68 @@
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0.54444444444444395</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>0.43833333333333302</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>0.43437500000000001</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>0.55384615384615299</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <v>0.29615384615384599</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>0.45769230769230701</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>0.44705882352941101</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="3">
         <v>0.63472222222222197</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="3">
         <v>0.51111111111111096</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <v>0.56153846153846099</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="3">
         <v>0.50030769230769201</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="3">
         <v>0.47749999999999898</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="3">
         <v>0.527272727272727</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="3">
         <v>0.85555555555555496</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="3">
         <v>0.421875</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="3">
         <v>0.68124999999999902</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="3">
         <v>0.48076923076923</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
         <v>0.52812499999999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12725,7 +12885,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -13086,6 +13246,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13096,7 +13261,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="B2" sqref="B2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -13457,6 +13622,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13467,7 +13637,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B2" sqref="B2:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -13828,6 +13998,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13838,7 +14013,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -14199,6 +14374,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14209,7 +14389,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -14570,6 +14750,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:S6">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>B2=MIN(B$2:B$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
